--- a/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det1_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det1_det3  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.6829767138364</v>
+        <v>16.27395536621195</v>
       </c>
       <c r="D2" t="n">
         <v>0.00301823225217215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008574046394687406</v>
+        <v>0.006275575909959944</v>
       </c>
       <c r="F2" t="n">
-        <v>10.16640973205541</v>
+        <v>6.608387435978644</v>
       </c>
       <c r="G2" t="n">
-        <v>9.81467589062537</v>
+        <v>6.398070021960509</v>
       </c>
       <c r="H2" t="n">
-        <v>10.52212548524313</v>
+        <v>6.823114605078502</v>
       </c>
       <c r="I2" t="n">
-        <v>2.431756346817269</v>
+        <v>3.2994696946754</v>
       </c>
       <c r="J2" t="n">
-        <v>2.430842719624685</v>
+        <v>3.270501540739864</v>
       </c>
       <c r="K2" t="n">
-        <v>2.43294070290005</v>
+        <v>3.330710973808486</v>
       </c>
       <c r="L2" t="n">
-        <v>0.135503251148323</v>
+        <v>0.1836414946648398</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1351019450299368</v>
+        <v>0.1820573890941121</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1359942222438858</v>
+        <v>0.1853512161757067</v>
       </c>
     </row>
     <row r="3">
@@ -557,40 +557,86 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3589057188001392</v>
+        <v>0.3589057182506037</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3038166774373344</v>
+        <v>0.3038166771491592</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3557873749964925</v>
+        <v>0.3557873748505794</v>
       </c>
       <c r="F3" t="n">
-        <v>0.232298299339093</v>
+        <v>0.2594165550832597</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2308480958408086</v>
+        <v>0.2590128726673701</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2347610584422879</v>
+        <v>0.2598164956945308</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2074811895810894</v>
+        <v>0.2326383659222323</v>
       </c>
       <c r="J3" t="n">
-        <v>0.207045831017687</v>
+        <v>0.2322669381939036</v>
       </c>
       <c r="K3" t="n">
-        <v>0.208045354676945</v>
+        <v>0.2330025539085543</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2291374966053231</v>
+        <v>0.2569356968891153</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2288398490635601</v>
+        <v>0.2565347254353867</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2294171876097761</v>
+        <v>0.2573330564668757</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16.63286108446255</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3068349094013313</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3620629507605393</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.867803991061905</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.657082894627879</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.082931100773033</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.532108060597632</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.502768478933767</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.56371352771704</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4405771915539552</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.4385921145294988</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4426842726425823</v>
       </c>
     </row>
   </sheetData>
